--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_289__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_289__Reeval_LHS_Modell_1.3.xlsx
@@ -6104,7 +6104,7 @@
                   <c:v>62.92029571533203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>69.90943908691406</c:v>
+                  <c:v>69.90944671630859</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>69.88625335693359</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>70.43726348876953</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>68.65501403808594</c:v>
+                  <c:v>68.65502166748047</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>61.81841278076172</c:v>
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>69.90943908691406</v>
+        <v>69.90944671630859</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>68.65501403808594</v>
+        <v>68.65502166748047</v>
       </c>
     </row>
     <row r="99" spans="1:6">
